--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1452,28 +1452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.7787908527258</v>
+        <v>274.8413168670824</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.5589817432779</v>
+        <v>376.0500148806938</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.1687912050575</v>
+        <v>340.1603292499902</v>
       </c>
       <c r="AD2" t="n">
-        <v>186778.7908527258</v>
+        <v>274841.3168670824</v>
       </c>
       <c r="AE2" t="n">
-        <v>255558.9817432779</v>
+        <v>376050.0148806938</v>
       </c>
       <c r="AF2" t="n">
         <v>9.473887593311243e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.5625</v>
       </c>
       <c r="AH2" t="n">
-        <v>231168.7912050575</v>
+        <v>340160.3292499902</v>
       </c>
     </row>
     <row r="3">
@@ -1558,28 +1558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.8129309469273</v>
+        <v>264.0537813020119</v>
       </c>
       <c r="AB3" t="n">
-        <v>254.2374496094333</v>
+        <v>361.2900328080834</v>
       </c>
       <c r="AC3" t="n">
-        <v>229.9733842432846</v>
+        <v>326.8090191506249</v>
       </c>
       <c r="AD3" t="n">
-        <v>185812.9309469273</v>
+        <v>264053.7813020119</v>
       </c>
       <c r="AE3" t="n">
-        <v>254237.4496094333</v>
+        <v>361290.0328080833</v>
       </c>
       <c r="AF3" t="n">
         <v>9.711771419019928e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>229973.3842432846</v>
+        <v>326809.0191506249</v>
       </c>
     </row>
   </sheetData>
@@ -1855,28 +1855,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.7643328548342</v>
+        <v>259.8209443682476</v>
       </c>
       <c r="AB2" t="n">
-        <v>236.383782036321</v>
+        <v>355.498478575721</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.8236456455646</v>
+        <v>321.5702027257017</v>
       </c>
       <c r="AD2" t="n">
-        <v>172764.3328548342</v>
+        <v>259820.9443682476</v>
       </c>
       <c r="AE2" t="n">
-        <v>236383.7820363209</v>
+        <v>355498.478575721</v>
       </c>
       <c r="AF2" t="n">
         <v>1.074477290872668e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.98958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>213823.6456455646</v>
+        <v>321570.2027257017</v>
       </c>
     </row>
   </sheetData>
@@ -2152,28 +2152,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.2259163873469</v>
+        <v>260.0366159162376</v>
       </c>
       <c r="AB2" t="n">
-        <v>253.4342703917611</v>
+        <v>355.7935699024382</v>
       </c>
       <c r="AC2" t="n">
-        <v>229.2468593228778</v>
+        <v>321.8371309503603</v>
       </c>
       <c r="AD2" t="n">
-        <v>185225.9163873469</v>
+        <v>260036.6159162376</v>
       </c>
       <c r="AE2" t="n">
-        <v>253434.2703917612</v>
+        <v>355793.5699024381</v>
       </c>
       <c r="AF2" t="n">
         <v>1.402490476134682e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.08333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>229246.8593228777</v>
+        <v>321837.1309503603</v>
       </c>
     </row>
   </sheetData>
@@ -2449,28 +2449,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.9508958328026</v>
+        <v>253.7441370529283</v>
       </c>
       <c r="AB2" t="n">
-        <v>243.4802663177835</v>
+        <v>347.1839227169191</v>
       </c>
       <c r="AC2" t="n">
-        <v>220.2428514271849</v>
+        <v>314.0491764086159</v>
       </c>
       <c r="AD2" t="n">
-        <v>177950.8958328026</v>
+        <v>253744.1370529283</v>
       </c>
       <c r="AE2" t="n">
-        <v>243480.2663177835</v>
+        <v>347183.9227169192</v>
       </c>
       <c r="AF2" t="n">
         <v>1.274204151891007e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.30208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>220242.8514271849</v>
+        <v>314049.1764086159</v>
       </c>
     </row>
   </sheetData>
@@ -2746,28 +2746,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>193.472060452907</v>
+        <v>276.6659293657995</v>
       </c>
       <c r="AB2" t="n">
-        <v>264.7170084964557</v>
+        <v>378.5465301976607</v>
       </c>
       <c r="AC2" t="n">
-        <v>239.4527887382862</v>
+        <v>342.4185806489872</v>
       </c>
       <c r="AD2" t="n">
-        <v>193472.060452907</v>
+        <v>276665.9293657995</v>
       </c>
       <c r="AE2" t="n">
-        <v>264717.0084964557</v>
+        <v>378546.5301976607</v>
       </c>
       <c r="AF2" t="n">
         <v>1.487092605427484e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.46354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>239452.7887382862</v>
+        <v>342418.5806489872</v>
       </c>
     </row>
   </sheetData>
@@ -3043,28 +3043,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.5588445465692</v>
+        <v>261.1629543294811</v>
       </c>
       <c r="AB2" t="n">
-        <v>251.1533091531913</v>
+        <v>357.3346758099816</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.183589823567</v>
+        <v>323.2311558730435</v>
       </c>
       <c r="AD2" t="n">
-        <v>183558.8445465692</v>
+        <v>261162.9543294811</v>
       </c>
       <c r="AE2" t="n">
-        <v>251153.3091531913</v>
+        <v>357334.6758099816</v>
       </c>
       <c r="AF2" t="n">
         <v>1.040605250089926e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.09375</v>
       </c>
       <c r="AH2" t="n">
-        <v>227183.589823567</v>
+        <v>323231.1558730435</v>
       </c>
     </row>
   </sheetData>
@@ -3340,28 +3340,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.3249348895739</v>
+        <v>294.2201185208613</v>
       </c>
       <c r="AB2" t="n">
-        <v>276.829901861953</v>
+        <v>402.5649462357849</v>
       </c>
       <c r="AC2" t="n">
-        <v>250.4096445615369</v>
+        <v>364.1447127704914</v>
       </c>
       <c r="AD2" t="n">
-        <v>202324.9348895739</v>
+        <v>294220.1185208613</v>
       </c>
       <c r="AE2" t="n">
-        <v>276829.901861953</v>
+        <v>402564.9462357849</v>
       </c>
       <c r="AF2" t="n">
         <v>1.529296646284786e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.63541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>250409.6445615369</v>
+        <v>364144.7127704914</v>
       </c>
     </row>
   </sheetData>
@@ -3637,28 +3637,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>180.1998062537463</v>
+        <v>256.8400367147853</v>
       </c>
       <c r="AB2" t="n">
-        <v>246.5573247706427</v>
+        <v>351.4198692157235</v>
       </c>
       <c r="AC2" t="n">
-        <v>223.0262397399828</v>
+        <v>317.8808501187639</v>
       </c>
       <c r="AD2" t="n">
-        <v>180199.8062537464</v>
+        <v>256840.0367147853</v>
       </c>
       <c r="AE2" t="n">
-        <v>246557.3247706427</v>
+        <v>351419.8692157235</v>
       </c>
       <c r="AF2" t="n">
         <v>1.166811824565981e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>223026.2397399828</v>
+        <v>317880.8501187639</v>
       </c>
     </row>
   </sheetData>
@@ -3934,28 +3934,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.9029300977325</v>
+        <v>259.0443337574699</v>
       </c>
       <c r="AB2" t="n">
-        <v>248.8876139505045</v>
+        <v>354.4358856764128</v>
       </c>
       <c r="AC2" t="n">
-        <v>225.1341293911008</v>
+        <v>320.609022201345</v>
       </c>
       <c r="AD2" t="n">
-        <v>181902.9300977325</v>
+        <v>259044.3337574699</v>
       </c>
       <c r="AE2" t="n">
-        <v>248887.6139505045</v>
+        <v>354435.8856764128</v>
       </c>
       <c r="AF2" t="n">
         <v>1.099777117888034e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>225134.1293911008</v>
+        <v>320609.022201345</v>
       </c>
     </row>
   </sheetData>
@@ -4231,28 +4231,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.2276743488285</v>
+        <v>263.2630343552959</v>
       </c>
       <c r="AB2" t="n">
-        <v>253.4366757122161</v>
+        <v>360.2080979502933</v>
       </c>
       <c r="AC2" t="n">
-        <v>229.2490350829244</v>
+        <v>325.8303426371572</v>
       </c>
       <c r="AD2" t="n">
-        <v>185227.6743488285</v>
+        <v>263263.0343552959</v>
       </c>
       <c r="AE2" t="n">
-        <v>253436.6757122161</v>
+        <v>360208.0979502933</v>
       </c>
       <c r="AF2" t="n">
         <v>9.877637986669518e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.22395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>229249.0350829244</v>
+        <v>325830.3426371572</v>
       </c>
     </row>
     <row r="3">
@@ -4337,28 +4337,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>184.9923138551564</v>
+        <v>263.0276738616237</v>
       </c>
       <c r="AB3" t="n">
-        <v>253.1146451014019</v>
+        <v>359.8860673394789</v>
       </c>
       <c r="AC3" t="n">
-        <v>228.9577386216334</v>
+        <v>325.5390461758661</v>
       </c>
       <c r="AD3" t="n">
-        <v>184992.3138551564</v>
+        <v>263027.6738616237</v>
       </c>
       <c r="AE3" t="n">
-        <v>253114.6451014019</v>
+        <v>359886.0673394789</v>
       </c>
       <c r="AF3" t="n">
         <v>9.956211155816291e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.09375</v>
       </c>
       <c r="AH3" t="n">
-        <v>228957.7386216334</v>
+        <v>325539.0461758661</v>
       </c>
     </row>
   </sheetData>
@@ -4634,28 +4634,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>178.9887438068396</v>
+        <v>255.0793599127826</v>
       </c>
       <c r="AB2" t="n">
-        <v>244.9002957024812</v>
+        <v>349.0108335396461</v>
       </c>
       <c r="AC2" t="n">
-        <v>221.5273552004312</v>
+        <v>315.7017294265078</v>
       </c>
       <c r="AD2" t="n">
-        <v>178988.7438068395</v>
+        <v>255079.3599127826</v>
       </c>
       <c r="AE2" t="n">
-        <v>244900.2957024812</v>
+        <v>349010.8335396461</v>
       </c>
       <c r="AF2" t="n">
         <v>1.226093280403443e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.30208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>221527.3552004312</v>
+        <v>315701.7294265078</v>
       </c>
     </row>
   </sheetData>
@@ -4931,28 +4931,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>176.4327307863726</v>
+        <v>261.0069656854153</v>
       </c>
       <c r="AB2" t="n">
-        <v>241.403045924544</v>
+        <v>357.1212452654374</v>
       </c>
       <c r="AC2" t="n">
-        <v>218.3638780328784</v>
+        <v>323.038094840119</v>
       </c>
       <c r="AD2" t="n">
-        <v>176432.7307863726</v>
+        <v>261006.9656854152</v>
       </c>
       <c r="AE2" t="n">
-        <v>241403.045924544</v>
+        <v>357121.2452654374</v>
       </c>
       <c r="AF2" t="n">
         <v>1.358445166485245e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.71875</v>
       </c>
       <c r="AH2" t="n">
-        <v>218363.8780328784</v>
+        <v>323038.094840119</v>
       </c>
     </row>
   </sheetData>
@@ -7665,28 +7665,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.4276687025515</v>
+        <v>268.1813754614245</v>
       </c>
       <c r="AB2" t="n">
-        <v>252.3420726932223</v>
+        <v>366.9375892335942</v>
       </c>
       <c r="AC2" t="n">
-        <v>228.258899439778</v>
+        <v>331.9175807172802</v>
       </c>
       <c r="AD2" t="n">
-        <v>184427.6687025515</v>
+        <v>268181.3754614245</v>
       </c>
       <c r="AE2" t="n">
-        <v>252342.0726932223</v>
+        <v>366937.5892335942</v>
       </c>
       <c r="AF2" t="n">
         <v>1.452206861229455e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.55208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>228258.899439778</v>
+        <v>331917.5807172802</v>
       </c>
     </row>
   </sheetData>
@@ -7962,28 +7962,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>230.4503338000729</v>
+        <v>330.6778839664498</v>
       </c>
       <c r="AB2" t="n">
-        <v>315.3123134563068</v>
+        <v>452.4480693215349</v>
       </c>
       <c r="AC2" t="n">
-        <v>285.2193488037417</v>
+        <v>409.2670606003405</v>
       </c>
       <c r="AD2" t="n">
-        <v>230450.3338000729</v>
+        <v>330677.8839664498</v>
       </c>
       <c r="AE2" t="n">
-        <v>315312.3134563068</v>
+        <v>452448.0693215349</v>
       </c>
       <c r="AF2" t="n">
         <v>1.530266282661891e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.05729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>285219.3488037417</v>
+        <v>409267.0606003405</v>
       </c>
     </row>
   </sheetData>
@@ -8259,28 +8259,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.0973166837828</v>
+        <v>257.9934784138149</v>
       </c>
       <c r="AB2" t="n">
-        <v>247.7853381363836</v>
+        <v>352.9980590345913</v>
       </c>
       <c r="AC2" t="n">
-        <v>224.1370532336254</v>
+        <v>319.3084197163229</v>
       </c>
       <c r="AD2" t="n">
-        <v>181097.3166837828</v>
+        <v>257993.4784138149</v>
       </c>
       <c r="AE2" t="n">
-        <v>247785.3381363836</v>
+        <v>352998.0590345913</v>
       </c>
       <c r="AF2" t="n">
         <v>1.130458305010438e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.04166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>224137.0532336254</v>
+        <v>319308.4197163229</v>
       </c>
     </row>
   </sheetData>
@@ -8556,28 +8556,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.984085764424</v>
+        <v>261.8073963004011</v>
       </c>
       <c r="AB2" t="n">
-        <v>251.7351429477783</v>
+        <v>358.2164297453676</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.7098942174078</v>
+        <v>324.0287564503858</v>
       </c>
       <c r="AD2" t="n">
-        <v>183984.0857644239</v>
+        <v>261807.3963004011</v>
       </c>
       <c r="AE2" t="n">
-        <v>251735.1429477783</v>
+        <v>358216.4297453676</v>
       </c>
       <c r="AF2" t="n">
         <v>1.022861833177459e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>227709.8942174078</v>
+        <v>324028.7564503858</v>
       </c>
     </row>
   </sheetData>
@@ -8853,28 +8853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>278.1855552579346</v>
+        <v>404.4994410397695</v>
       </c>
       <c r="AB2" t="n">
-        <v>380.6257493844429</v>
+        <v>553.4539804864972</v>
       </c>
       <c r="AC2" t="n">
-        <v>344.2993620747853</v>
+        <v>500.6331093664055</v>
       </c>
       <c r="AD2" t="n">
-        <v>278185.5552579346</v>
+        <v>404499.4410397695</v>
       </c>
       <c r="AE2" t="n">
-        <v>380625.7493844429</v>
+        <v>553453.9804864973</v>
       </c>
       <c r="AF2" t="n">
         <v>1.448976634355789e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>344299.3620747853</v>
+        <v>500633.1093664055</v>
       </c>
     </row>
   </sheetData>
@@ -9150,28 +9150,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>176.9572381420546</v>
+        <v>252.4347812184653</v>
       </c>
       <c r="AB2" t="n">
-        <v>242.1207000282192</v>
+        <v>345.3924042995052</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.0130402361329</v>
+        <v>312.4286379945475</v>
       </c>
       <c r="AD2" t="n">
-        <v>176957.2381420546</v>
+        <v>252434.7812184653</v>
       </c>
       <c r="AE2" t="n">
-        <v>242120.7000282192</v>
+        <v>345392.4042995052</v>
       </c>
       <c r="AF2" t="n">
         <v>1.323468851447076e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.35416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>219013.0402361329</v>
+        <v>312428.6379945475</v>
       </c>
     </row>
   </sheetData>
@@ -9447,28 +9447,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>169.3391382395603</v>
+        <v>255.2653389440973</v>
       </c>
       <c r="AB2" t="n">
-        <v>231.697279654784</v>
+        <v>349.2652982551065</v>
       </c>
       <c r="AC2" t="n">
-        <v>209.5844164737726</v>
+        <v>315.9319083866682</v>
       </c>
       <c r="AD2" t="n">
-        <v>169339.1382395603</v>
+        <v>255265.3389440973</v>
       </c>
       <c r="AE2" t="n">
-        <v>231697.279654784</v>
+        <v>349265.2982551065</v>
       </c>
       <c r="AF2" t="n">
         <v>1.214378782212228e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.88541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>209584.4164737726</v>
+        <v>315931.9083866682</v>
       </c>
     </row>
   </sheetData>
